--- a/Mini projet Scan/Scan Documents/Diagramme de Gantt.xlsx
+++ b/Mini projet Scan/Scan Documents/Diagramme de Gantt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TACHES</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Lundi 15/11</t>
   </si>
   <si>
-    <t>Mardi 16/11</t>
-  </si>
-  <si>
     <t>Mercredi 17/11</t>
   </si>
   <si>
-    <t>Jeudi  18/11</t>
-  </si>
-  <si>
     <t>Vendredi 19/11</t>
   </si>
   <si>
@@ -87,7 +81,10 @@
     <t>Mercredi 24/11</t>
   </si>
   <si>
-    <t>Vendredi 25/11</t>
+    <t>Jeudi 25/11</t>
+  </si>
+  <si>
+    <t>Vendredi 26/11</t>
   </si>
 </sst>
 </file>
@@ -268,6 +265,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -288,8 +287,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Avertissement" xfId="3" builtinId="11"/>
@@ -599,7 +596,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -611,15 +608,15 @@
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="16.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="16.5">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
@@ -647,18 +644,16 @@
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -671,21 +666,21 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -693,23 +688,23 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -717,134 +712,137 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="J12" s="8" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="H12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="6"/>
